--- a/Prediction Results (Assignment 2).xlsx
+++ b/Prediction Results (Assignment 2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sival\Desktop\Energy Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA147E-2AE1-4A19-918C-4E606864C6D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FFCC0E-D789-4286-BC85-51AB84AC2655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28040BF5-DFDE-449B-AD87-143FF638186A}"/>
   </bookViews>
@@ -766,7 +766,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -818,7 +818,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8EE598-7D27-42EF-90C0-205275056F90}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
